--- a/data/trans_camb/P16A07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Edad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.3790777126433388</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4155833813662182</v>
+        <v>0.415583381366218</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1991431233859646</v>
+        <v>-0.1939485834383967</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1961654380689238</v>
+        <v>-0.3332021836107446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1931311976730153</v>
+        <v>-0.1928771455071397</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.553872487978239</v>
+        <v>-2.576783588850228</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.482609784238756</v>
+        <v>-2.604023922099886</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.515594951328663</v>
+        <v>-1.629835959295029</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.156386824612258</v>
+        <v>-1.159623727090021</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.177110215945173</v>
+        <v>-1.206183945348515</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6233250734742524</v>
+        <v>-0.642346155240725</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.410744608106583</v>
+        <v>1.567373184712584</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.466078853663787</v>
+        <v>1.265666196393182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.386871238054088</v>
+        <v>2.141962497571252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1395496414978167</v>
+        <v>0.3141890071693165</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3180826414652745</v>
+        <v>0.3445581451492369</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.137423660888511</v>
+        <v>3.505988218197166</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4704661731700419</v>
+        <v>0.4842046867092608</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3732628136899783</v>
+        <v>0.4329476920422541</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.904477088352545</v>
+        <v>1.945728666591434</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.38606132307685</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4232395224193685</v>
+        <v>0.4232395224193684</v>
       </c>
     </row>
     <row r="8">
@@ -783,22 +783,22 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
+        <v>-0.914868242898253</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="6" t="n">
-        <v>-0.9385853215695068</v>
-      </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7393705301613308</v>
+        <v>-0.7592534696739208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8096159551312438</v>
+        <v>-0.8019499655574605</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8237792422566312</v>
+        <v>-0.8561572366904971</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6083852131497387</v>
+        <v>-0.5748360727848291</v>
       </c>
     </row>
     <row r="9">
@@ -812,22 +812,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.4930283963756972</v>
+        <v>0.7858513442444409</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.697984691873763</v>
+        <v>0.681344262480847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.757022738588626</v>
+        <v>3.462611782064136</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9574405183169967</v>
+        <v>0.972160365109942</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7539877265728219</v>
+        <v>0.924433317135285</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.009555271866743</v>
+        <v>3.393418828769922</v>
       </c>
     </row>
     <row r="10">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8902344142547182</v>
+        <v>-0.7899859300639238</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.387587590706674</v>
+        <v>-1.268922664878438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.567699084875665</v>
+        <v>-1.397840046292618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.946028938234014</v>
+        <v>-1.959457315242498</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.955741127376692</v>
+        <v>-3.025181907052463</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.34987139221047</v>
+        <v>-2.373944564636984</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9038172325249907</v>
+        <v>-1.016876417149181</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.587964933249385</v>
+        <v>-1.69248642154298</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.472602813525056</v>
+        <v>-1.439815382041504</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.976570464129091</v>
+        <v>1.950544291988895</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8404667905302248</v>
+        <v>0.9416291722697799</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.023840310826169</v>
+        <v>1.029850213434732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.327028004681728</v>
+        <v>2.076489767439102</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9061112039725359</v>
+        <v>0.7738727898518103</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.729699968505998</v>
+        <v>1.92604346268456</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.469984995928266</v>
+        <v>1.491246447993853</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4943399532672675</v>
+        <v>0.515811289595996</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.976882761293842</v>
+        <v>1.075402504533283</v>
       </c>
     </row>
     <row r="13">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5619920809046927</v>
+        <v>-0.5360151762956121</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7681943036597939</v>
+        <v>-0.7413615915595149</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8560192962201728</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4885702417436493</v>
+        <v>-0.4824308889388869</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6822185035866607</v>
+        <v>-0.6966356704323544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5937684623778919</v>
+        <v>-0.5779869116177743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.362041702036085</v>
+        <v>-0.3904157564068509</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5908336024783069</v>
+        <v>-0.6182661747791044</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5715200112592536</v>
+        <v>-0.5564733730264085</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.785908693940941</v>
+        <v>2.825774763511812</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.765707299942825</v>
+        <v>1.912566785515385</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.069654358120656</v>
+        <v>1.84012229957625</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.100171337680727</v>
+        <v>0.9702231737964725</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4979553024527013</v>
+        <v>0.4288701023729355</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8639047917563685</v>
+        <v>0.9049994486927589</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.97178959281473</v>
+        <v>1.000958105375306</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.330895672551749</v>
+        <v>0.3972511121465537</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6457887489880643</v>
+        <v>0.7090399648843719</v>
       </c>
     </row>
     <row r="16">
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7526138541448283</v>
+        <v>-0.8441350052719891</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.57298948162415</v>
+        <v>-1.768534109609491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.49955925819939</v>
+        <v>-1.374830302994596</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.778133002678677</v>
+        <v>2.004227509742802</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.668044818695261</v>
+        <v>-1.733684632912789</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.270389494579647</v>
+        <v>-1.306488812421626</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8486428941055505</v>
+        <v>1.031075664366779</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.085735342093241</v>
+        <v>-1.160646190543462</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.9211058775002331</v>
+        <v>-0.8014237525315324</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.037794310180557</v>
+        <v>2.946444685092522</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.576029427107688</v>
+        <v>1.460447140218235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.033946401448078</v>
+        <v>2.185274159096921</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.880761778317233</v>
+        <v>6.920288796722204</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.617353931201126</v>
+        <v>2.384473224166226</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.675138844442072</v>
+        <v>2.76869357976936</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.21606525062548</v>
+        <v>4.153225801755211</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.469574764030182</v>
+        <v>1.503817416167808</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.759719995141597</v>
+        <v>1.785000490085479</v>
       </c>
     </row>
     <row r="19">
@@ -1196,31 +1196,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2904380013002633</v>
+        <v>-0.3181454296429769</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5423508425614366</v>
+        <v>-0.5812389719405677</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5412908191543925</v>
+        <v>-0.5000815993449433</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3446532839559937</v>
+        <v>0.354171223968995</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3455825452794218</v>
+        <v>-0.3563309788450952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2680242029186055</v>
+        <v>-0.2743249585877941</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2122364863497246</v>
+        <v>0.2944926159939921</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.307806733686905</v>
+        <v>-0.3343491592003843</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2538088220125456</v>
+        <v>-0.230742010968551</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.370540752804188</v>
+        <v>1.950590429593932</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.201031594022483</v>
+        <v>1.080085767881006</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.440921301270841</v>
+        <v>1.777827144985752</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.494700579556025</v>
+        <v>2.397012187336574</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9278377780620128</v>
+        <v>0.9101673709255029</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9840130172639024</v>
+        <v>1.100453716204777</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.746475600273309</v>
+        <v>1.897001310004695</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.629553913281043</v>
+        <v>0.6601026940792819</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7425587042699655</v>
+        <v>0.7494701470160307</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1276,7 @@
         <v>0.2638144087946423</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.077945731696776</v>
+        <v>3.077945731696774</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.371449776017943</v>
@@ -1294,7 +1294,7 @@
         <v>-0.04062671816612989</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.296523752010256</v>
+        <v>1.296523752010258</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7525086748445976</v>
+        <v>-0.9410830287418117</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.684874102038024</v>
+        <v>-1.738101235783395</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.859266376545428</v>
+        <v>0.7897771901009579</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.730331955318287</v>
+        <v>-3.374773838249834</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.598756577762086</v>
+        <v>-3.874553670273633</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.523965253801531</v>
+        <v>-3.574191119188205</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.332658272396774</v>
+        <v>-1.272331570199486</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.003685068271084</v>
+        <v>-2.019376535193302</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.7364141928668083</v>
+        <v>-0.6550167366081622</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.134812062984743</v>
+        <v>3.333661095475492</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.954352768561371</v>
+        <v>2.086705158655781</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.146269769377083</v>
+        <v>5.383124505498207</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.806727762492754</v>
+        <v>3.645657666614067</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.939039626282333</v>
+        <v>2.900967821051716</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.208062161156108</v>
+        <v>2.302923929146257</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.768139658689398</v>
+        <v>3.020029567218133</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.869460001193616</v>
+        <v>1.980186825720881</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.076110626748341</v>
+        <v>3.177353162175263</v>
       </c>
     </row>
     <row r="25">
@@ -1381,7 +1381,7 @@
         <v>0.1168104114917008</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.362837265452371</v>
+        <v>1.36283726545237</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.04160835091774812</v>
@@ -1399,7 +1399,7 @@
         <v>-0.007278697171885456</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.232285653211017</v>
+        <v>0.2322856532110172</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2747776261636917</v>
+        <v>-0.3217527022954771</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5302770312159276</v>
+        <v>-0.5594302080643982</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2009756880266546</v>
+        <v>0.2192662694254596</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2544684705140598</v>
+        <v>-0.3096136595635465</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3392506097959685</v>
+        <v>-0.3639402060483576</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3257298496022207</v>
+        <v>-0.3218299270018593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1954414107129332</v>
+        <v>-0.1891204302785362</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2948473437763967</v>
+        <v>-0.3001230013797183</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1145085757895787</v>
+        <v>-0.1066322628910399</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.242725583110389</v>
+        <v>2.584197921322412</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.530984643992885</v>
+        <v>1.635485388200187</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.925757554214794</v>
+        <v>3.65941928757259</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5313037717916301</v>
+        <v>0.5067789144285897</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4100090054867366</v>
+        <v>0.4275236163999405</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3062766839945776</v>
+        <v>0.315058844787049</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6211673483520727</v>
+        <v>0.6858798660142159</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4259881355253972</v>
+        <v>0.4486453568467346</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6677967055311349</v>
+        <v>0.6985071358877831</v>
       </c>
     </row>
     <row r="28">
@@ -1490,7 +1490,7 @@
         <v>0.403013746941281</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.039771682084569</v>
+        <v>2.039771682084567</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.318171319053448</v>
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8580731622090814</v>
+        <v>-0.8477763213157877</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.225856881985386</v>
+        <v>-2.198135346249305</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6641523081956288</v>
+        <v>-0.2676660725677875</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.930610698912828</v>
+        <v>-1.592262856209115</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.888317432294767</v>
+        <v>-5.486955939661298</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.719969766121468</v>
+        <v>-4.169488583572411</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.09137397961013749</v>
+        <v>-0.328669172777357</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.332091968185691</v>
+        <v>-3.180086712383493</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.670367345910356</v>
+        <v>-1.56307211345921</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.383945168333327</v>
+        <v>4.959907331372119</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.004863297042662</v>
+        <v>3.140856251180726</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.811039980804403</v>
+        <v>4.523921759306032</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.918962248853084</v>
+        <v>7.908940829230716</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.929231974583395</v>
+        <v>3.266771655717843</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.610204866836305</v>
+        <v>3.778426787461525</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.721528386533971</v>
+        <v>5.47615305700591</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.185956728115626</v>
+        <v>2.275827926033513</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.20318510245755</v>
+        <v>3.281215897674401</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1595,7 @@
         <v>0.1120239723419271</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5669864321798946</v>
+        <v>0.5669864321798943</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2640908361356208</v>
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2234374946154341</v>
+        <v>-0.1755750616160581</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.487557811159164</v>
+        <v>-0.4609465084285327</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1641560281446399</v>
+        <v>-0.09479726637324168</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1392156696028098</v>
+        <v>-0.1056447377042183</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3894246933832216</v>
+        <v>-0.3693537315477096</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2433879773286639</v>
+        <v>-0.2612517386243811</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01594045044868801</v>
+        <v>-0.03455082847156551</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3475858570316663</v>
+        <v>-0.3299448506912902</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1705424930371411</v>
+        <v>-0.152331703251111</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.147423142973095</v>
+        <v>2.109467950832936</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.278653398857442</v>
+        <v>1.433267018904401</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.156068200134981</v>
+        <v>1.970274900473203</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7547257743575524</v>
+        <v>0.8030240758606395</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.287124433799125</v>
+        <v>0.320296009177737</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3570461439058343</v>
+        <v>0.3814457536442334</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8414655173959497</v>
+        <v>0.779574040860702</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.334657989520473</v>
+        <v>0.3397245509763167</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4862772137126417</v>
+        <v>0.4903257844384742</v>
       </c>
     </row>
     <row r="34">
@@ -1713,7 +1713,7 @@
         <v>3.154776734733625</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.685754645394098</v>
+        <v>1.685754645394095</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.74567393336406</v>
@@ -1722,7 +1722,7 @@
         <v>0.7818768557020961</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.06366966734950574</v>
+        <v>0.06366966734950713</v>
       </c>
     </row>
     <row r="35">
@@ -1733,31 +1733,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.582074051480157</v>
+        <v>-2.715400058738459</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.666523028243574</v>
+        <v>-4.662023972693858</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.063582621425568</v>
+        <v>-4.145428566299176</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.887077502956159</v>
+        <v>-1.775345311167944</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.548524290205863</v>
+        <v>-1.464450080641124</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.137094941762391</v>
+        <v>-2.865798140091009</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.218389651872756</v>
+        <v>-1.081327728475275</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.085944369520378</v>
+        <v>-1.859932813621822</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.680406328446274</v>
+        <v>-2.478805395885563</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1768,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.899961535210349</v>
+        <v>4.077466942104129</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.4447471138819185</v>
+        <v>0.6661620763978019</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.009184675952689</v>
+        <v>0.7174919105477373</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.568363316340901</v>
+        <v>7.832308294574694</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.242632877597416</v>
+        <v>8.210994020535969</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.322564520119398</v>
+        <v>5.218980685923393</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.750514287859555</v>
+        <v>4.693368436129045</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.564571823627861</v>
+        <v>3.6357443280022</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.500354696759348</v>
+        <v>2.484825453007394</v>
       </c>
     </row>
     <row r="37">
@@ -1818,7 +1818,7 @@
         <v>0.308761488075468</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1649866715166971</v>
+        <v>0.1649866715166968</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2410263716271704</v>
@@ -1827,7 +1827,7 @@
         <v>0.1079542622406994</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.008790913704248952</v>
+        <v>0.008790913704249144</v>
       </c>
     </row>
     <row r="38">
@@ -1838,31 +1838,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4970396782875049</v>
+        <v>-0.5166695504427086</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8420183858025831</v>
+        <v>-0.8181900147852362</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7181155736068654</v>
+        <v>-0.7376100451548395</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1540583430278841</v>
+        <v>-0.1539908443994437</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1320870330884993</v>
+        <v>-0.1269750524035916</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.174082461393684</v>
+        <v>-0.2063748987795216</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1448038061495194</v>
+        <v>-0.1329474964352022</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2420986895199802</v>
+        <v>-0.228418503589622</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2956408423491982</v>
+        <v>-0.2759567293226682</v>
       </c>
     </row>
     <row r="39">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.73235624006795</v>
+        <v>1.828371658318592</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2513245580499464</v>
+        <v>0.3917175864961219</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.5236462995651446</v>
+        <v>0.3927858360718405</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.8749493361829775</v>
+        <v>0.9384596823874805</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9780868648943427</v>
+        <v>1.077644068472034</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6757605418295874</v>
+        <v>0.6926411374906769</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7828071669295324</v>
+        <v>0.7545371591710724</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5942593114501503</v>
+        <v>0.6063022924025342</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4156162245907861</v>
+        <v>0.4260591277357457</v>
       </c>
     </row>
     <row r="40">
@@ -1918,7 +1918,7 @@
         <v>-0.7198765284002164</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.366817397827697</v>
+        <v>1.366817397827696</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.417020831071226</v>
@@ -1927,7 +1927,7 @@
         <v>1.900293883391918</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.1858069220496625</v>
+        <v>0.1858069220496611</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.155436603522598</v>
@@ -1936,7 +1936,7 @@
         <v>0.8492118776772306</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.5825591585388077</v>
+        <v>0.582559158538809</v>
       </c>
     </row>
     <row r="41">
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.557982258060687</v>
+        <v>-3.366701142272533</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.668122072856137</v>
+        <v>-4.781328322249638</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.450076543673222</v>
+        <v>-3.03199760278849</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.324971363297751</v>
+        <v>-3.138577417451298</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.016455668058034</v>
+        <v>-2.581794851652563</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.079483633470026</v>
+        <v>-4.066240856836723</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.048975395367039</v>
+        <v>-2.52655910003035</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.476784446988113</v>
+        <v>-2.586692833575197</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.593099799408217</v>
+        <v>-2.765754871410121</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.443598225362447</v>
+        <v>4.889843605227584</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.681522470979589</v>
+        <v>2.601358596979056</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.968274465541224</v>
+        <v>4.501180912781503</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.244289343073757</v>
+        <v>6.293667102194088</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.233142662073389</v>
+        <v>7.047667217399913</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.899206803942873</v>
+        <v>4.122938860676967</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.530098669564707</v>
+        <v>4.37661353051478</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.41093926292755</v>
+        <v>4.169109951350159</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.057027440977794</v>
+        <v>3.181934233433483</v>
       </c>
     </row>
     <row r="43">
@@ -2023,7 +2023,7 @@
         <v>-0.1526048448106904</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2897482396649073</v>
+        <v>0.289748239664907</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1432883123620508</v>
@@ -2032,7 +2032,7 @@
         <v>0.1921565989522627</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0187886865894246</v>
+        <v>0.01878868658942446</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1463859482575872</v>
@@ -2041,7 +2041,7 @@
         <v>0.107589361118034</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.07380627771255951</v>
+        <v>0.0738062777125597</v>
       </c>
     </row>
     <row r="44">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5517946527012845</v>
+        <v>-0.5268630525450223</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6403744002783446</v>
+        <v>-0.6632653902231583</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3478827498512319</v>
+        <v>-0.4084925811346302</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.274249813511213</v>
+        <v>-0.2708869981015908</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2462901351420801</v>
+        <v>-0.2238214600793439</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.323724611254917</v>
+        <v>-0.3121841347523346</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2212562328588057</v>
+        <v>-0.2745880027249525</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2636546085290669</v>
+        <v>-0.2684767782593906</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2581758529964541</v>
+        <v>-0.2641181338048318</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.981989650461995</v>
+        <v>1.862707578893948</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.183635003512875</v>
+        <v>1.127838387837036</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.126317337629795</v>
+        <v>1.635465180525796</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8764066425499428</v>
+        <v>0.8808774798313329</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.9659436514985773</v>
+        <v>0.9781245049674714</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5586625008725365</v>
+        <v>0.5945184400892802</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.733590523831586</v>
+        <v>0.6977444569723219</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7335844188614198</v>
+        <v>0.6801260982145814</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5156725987393431</v>
+        <v>0.5301159870167157</v>
       </c>
     </row>
     <row r="46">
@@ -2132,7 +2132,7 @@
         <v>0.04607801068359958</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1.307767661080836</v>
+        <v>1.307767661080835</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.905993916795759</v>
@@ -2141,7 +2141,7 @@
         <v>0.6442290255734076</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.213107890151241</v>
+        <v>1.21310789015124</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.474773402380305</v>
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.2035602575299755</v>
+        <v>0.1383274779827539</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.7056354531444659</v>
+        <v>-0.6174259500508142</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.5987799025783548</v>
+        <v>0.4507910437160753</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.6161404649119254</v>
+        <v>0.5609345438606185</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.6426367742251001</v>
+        <v>-0.7475619127923337</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.1857013520832006</v>
+        <v>0.08171642003130522</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.6937247832707653</v>
+        <v>0.7515541040298318</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.3796860820636585</v>
+        <v>-0.3965799108116955</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.6136379346864564</v>
+        <v>0.6030843184663788</v>
       </c>
     </row>
     <row r="48">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.930716816794202</v>
+        <v>1.770299648268197</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.7571642858477347</v>
+        <v>0.79815836291743</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.062686412941174</v>
+        <v>2.091569980983122</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.200062908630345</v>
+        <v>3.12868928035567</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.824474891429386</v>
+        <v>1.897254537953679</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.475972252599218</v>
+        <v>2.311335982670977</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.260778638646427</v>
+        <v>2.222333827997308</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.075449437203954</v>
+        <v>1.00457153558608</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.044412329002517</v>
+        <v>2.042182330334971</v>
       </c>
     </row>
     <row r="49">
@@ -2237,7 +2237,7 @@
         <v>0.0215306755560667</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.6110750181207271</v>
+        <v>0.6110750181207267</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2952015017666275</v>
@@ -2246,7 +2246,7 @@
         <v>0.09977858489214679</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1878868908352164</v>
+        <v>0.1878868908352162</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.3404393841468972</v>
@@ -2266,31 +2266,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.05014743108598542</v>
+        <v>0.04846716210384223</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2799537957745142</v>
+        <v>-0.2512135127072032</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2265715955059281</v>
+        <v>0.1760163942673928</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.08502420622075907</v>
+        <v>0.08060944084835449</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.09499181745057438</v>
+        <v>-0.1060070466626045</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02329111543031127</v>
+        <v>0.01723144109687367</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1469201737958036</v>
+        <v>0.1609613065360307</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.07779946184656084</v>
+        <v>-0.08445593662891195</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1298759042259769</v>
+        <v>0.1288075252711131</v>
       </c>
     </row>
     <row r="51">
@@ -2301,31 +2301,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.026913399082615</v>
+        <v>0.9820192630805199</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.425590776617746</v>
+        <v>0.4758619596108429</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.123416516165796</v>
+        <v>1.157340634106392</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5353840781741512</v>
+        <v>0.5290865438387584</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3162191658632124</v>
+        <v>0.3175971727796123</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4243657631117789</v>
+        <v>0.3998687122142688</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5693264152332462</v>
+        <v>0.5551263589790422</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2733051617854473</v>
+        <v>0.2452936001450151</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5133270249866453</v>
+        <v>0.528416547484071</v>
       </c>
     </row>
     <row r="52">
